--- a/DataBase/데이터모델링/제2정규화.xlsx
+++ b/DataBase/데이터모델링/제2정규화.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DoWonJin\Desktop\developer-wonjin\Study\DataBase\데이터모델링\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3D5474-F1C7-447E-845C-E50269F31B6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13FB03E-E8E1-4ED7-B5E7-7C0487A4974B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27225" windowHeight="10170" xr2:uid="{8220D4C0-54D1-4940-BFD1-84EDE2B55A8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27225" windowHeight="10170" activeTab="1" xr2:uid="{8220D4C0-54D1-4940-BFD1-84EDE2B55A8E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="실습1" sheetId="4" r:id="rId1"/>
+    <sheet name="실습2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,9 +25,273 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+  <si>
+    <t>주문_상품 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK FK </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그대분류번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그대분류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK, FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그소분류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그소분류번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q. 리그소분류테이블에서 '리그소분류명'은 '리그소분류번호'에 의해 결정되므로 제2정규화 위반인 것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A. 컬럼 '리그소분류명' 이름이 모호하다. 더 명확한 이름으로 변경할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북부리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남부리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨스턴리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이스턴리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--------&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그분류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1부 북부리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1부 남부리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2부 웨스턴리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2부 이스턴리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3부 북부리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3부 남부리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#리그대분류번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그대분류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류(FK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제2정규형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두개 이상으로 구성된 pk에서 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소분류명'이 (대분류, 소분류) 조합으로 결정된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류와 소분류의 문자열concat으로 #분류 컬럼 하나만으로 각 레코드를 식별할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소분류는 대분류에 종속적임. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,19 +307,98 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -65,8 +409,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -75,6 +464,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -383,15 +778,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB436049-BEA8-429E-8769-356F0153C12F}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2BE6E9-B474-4C5C-8CD2-EEB82F843A5F}">
+  <dimension ref="B5:K34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="G14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G19" s="1">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="K26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="G28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="1">
+        <v>20</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="1">
+        <v>20</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="1">
+        <v>30</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="1">
+        <v>30</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>